--- a/docss/trend/czechia/E_ataxy.xlsx
+++ b/docss/trend/czechia/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\czechia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\czechia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="B1:E16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1720,13 @@
       <c r="A2">
         <v>2000</v>
       </c>
-      <c r="B2" s="9">
-        <v>2.0834106951951981E-2</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" s="9"/>
@@ -1735,13 +1735,13 @@
       <c r="A3">
         <v>2001</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="9"/>
@@ -1750,13 +1750,13 @@
       <c r="A4">
         <v>2002</v>
       </c>
-      <c r="B4" s="9">
-        <v>2.7136780321598053E-2</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -1765,13 +1765,13 @@
       <c r="A5">
         <v>2003</v>
       </c>
-      <c r="B5" s="9">
-        <v>1.0949664749205112E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -1780,13 +1780,13 @@
       <c r="A6">
         <v>2004</v>
       </c>
-      <c r="B6" s="9">
-        <v>1.5767485834658146E-2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -1795,14 +1795,14 @@
       <c r="A7">
         <v>2005</v>
       </c>
-      <c r="B7" s="9">
-        <v>8.9848991483449936E-3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1.7743663862347603E-2</v>
+      <c r="B7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -1810,13 +1810,13 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>9.0971346944570541E-3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -1825,13 +1825,13 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -1840,13 +1840,13 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -1855,13 +1855,13 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -1870,13 +1870,13 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -1885,13 +1885,13 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>1.9206057768315077E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -1900,13 +1900,13 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>1.8322431482374668E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1.6381435096263885E-2</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -1923,43 +1923,88 @@
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
